--- a/data/trans_bre/P34A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 6,79</t>
+          <t>-10,61; 6,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 17,44</t>
+          <t>0,36; 17,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 14,37</t>
+          <t>-1,5; 14,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 22,06</t>
+          <t>-26,49; 21,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 62,32</t>
+          <t>1,04; 62,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 37,5</t>
+          <t>-3,24; 36,63</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,04; 16,51</t>
+          <t>4,1; 16,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,87; 19,15</t>
+          <t>7,65; 19,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 13,48</t>
+          <t>1,63; 13,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,25; 20,51</t>
+          <t>7,57; 21,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,47; 55,65</t>
+          <t>11,05; 55,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,14; 103,72</t>
+          <t>31,53; 107,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 50,89</t>
+          <t>4,85; 49,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,37; 59,21</t>
+          <t>17,32; 62,12</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 6,26</t>
+          <t>-9,64; 5,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 6,78</t>
+          <t>-4,98; 7,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 12,15</t>
+          <t>-2,26; 12,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 9,54</t>
+          <t>-4,33; 10,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 16,67</t>
+          <t>-20,56; 14,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,47; 43,42</t>
+          <t>-23,75; 49,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 43,75</t>
+          <t>-6,06; 43,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 29,45</t>
+          <t>-10,75; 31,4</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 11,14</t>
+          <t>-3,26; 10,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 13,38</t>
+          <t>3,3; 13,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,65; 19,57</t>
+          <t>6,66; 20,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 14,27</t>
+          <t>-3,81; 14,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 32,08</t>
+          <t>-8,14; 29,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,91; 57,07</t>
+          <t>11,27; 57,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,27; 106,12</t>
+          <t>26,51; 108,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 50,06</t>
+          <t>-10,53; 48,49</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,72; 29,29</t>
+          <t>7,67; 27,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 18,61</t>
+          <t>0,71; 19,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,88; 22,79</t>
+          <t>4,81; 22,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 8,66</t>
+          <t>-1,36; 8,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,22; 66,05</t>
+          <t>14,07; 63,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 81,48</t>
+          <t>1,63; 83,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,57; 80,15</t>
+          <t>12,66; 77,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 116,4</t>
+          <t>-11,06; 114,8</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 15,74</t>
+          <t>-0,98; 15,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 11,01</t>
+          <t>-1,65; 11,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 15,59</t>
+          <t>-1,17; 15,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 9,79</t>
+          <t>-5,18; 9,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 48,48</t>
+          <t>-2,47; 45,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 96,24</t>
+          <t>-10,45; 102,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 52,01</t>
+          <t>-3,13; 50,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 27,6</t>
+          <t>-11,65; 26,83</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 7,14</t>
+          <t>-4,25; 7,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 10,05</t>
+          <t>0,08; 9,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 12,44</t>
+          <t>1,2; 12,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 14,54</t>
+          <t>-6,96; 14,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 17,07</t>
+          <t>-8,79; 17,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 55,36</t>
+          <t>0,14; 52,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,1; 33,79</t>
+          <t>2,81; 34,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-21,08; 53,41</t>
+          <t>-22,79; 52,77</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,69; 11,23</t>
+          <t>1,06; 11,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,42; 16,71</t>
+          <t>7,47; 17,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,07; 15,24</t>
+          <t>5,39; 15,4</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,55; 12,69</t>
+          <t>1,55; 12,84</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,89; 25,84</t>
+          <t>2,1; 27,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,81; 74,83</t>
+          <t>27,99; 79,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,98; 42,71</t>
+          <t>13,18; 42,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,7; 51,54</t>
+          <t>4,97; 52,59</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,44; 7,41</t>
+          <t>2,68; 7,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,57</t>
+          <t>6,36; 10,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,48; 11,29</t>
+          <t>6,27; 11,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,63</t>
+          <t>2,16; 8,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,71; 18,66</t>
+          <t>6,44; 19,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>26,67; 49,09</t>
+          <t>26,94; 49,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>18,58; 34,81</t>
+          <t>17,74; 34,72</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,84; 31,06</t>
+          <t>7,03; 28,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P34A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 6,71</t>
+          <t>-10,35; 6,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 17,53</t>
+          <t>0,67; 16,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,49; 21,22</t>
+          <t>-26,77; 19,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 62,73</t>
+          <t>1,77; 60,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,1; 16,53</t>
+          <t>4,38; 16,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,65; 19,63</t>
+          <t>8,02; 19,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,63; 13,21</t>
+          <t>1,9; 13,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,05; 55,63</t>
+          <t>11,9; 55,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,53; 107,11</t>
+          <t>33,83; 108,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,85; 49,16</t>
+          <t>5,67; 51,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 5,4</t>
+          <t>-9,14; 7,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 7,36</t>
+          <t>-5,1; 6,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 12,37</t>
+          <t>-2,11; 12,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,56; 14,09</t>
+          <t>-20,05; 18,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,75; 49,48</t>
+          <t>-22,62; 43,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 43,52</t>
+          <t>-6,03; 42,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 10,25</t>
+          <t>-3,86; 10,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 13,51</t>
+          <t>2,55; 13,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,66; 20,36</t>
+          <t>7,06; 20,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 29,66</t>
+          <t>-9,21; 30,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,27; 57,39</t>
+          <t>8,69; 56,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,51; 108,64</t>
+          <t>28,73; 111,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,67; 27,48</t>
+          <t>9,04; 27,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 19,4</t>
+          <t>-0,16; 18,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,81; 22,74</t>
+          <t>4,45; 23,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,07; 63,25</t>
+          <t>16,63; 63,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,63; 83,02</t>
+          <t>-1,06; 77,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,66; 77,76</t>
+          <t>10,83; 79,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 15,38</t>
+          <t>-1,1; 15,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 11,72</t>
+          <t>-1,84; 11,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 15,5</t>
+          <t>-0,84; 15,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 45,4</t>
+          <t>-2,36; 46,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 102,14</t>
+          <t>-10,46; 108,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 50,57</t>
+          <t>-2,06; 50,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 7,21</t>
+          <t>-4,24; 7,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 9,72</t>
+          <t>0,33; 9,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,2; 12,81</t>
+          <t>1,19; 12,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 17,25</t>
+          <t>-8,61; 18,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,14; 52,49</t>
+          <t>0,4; 50,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,81; 34,89</t>
+          <t>2,8; 33,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,06; 11,75</t>
+          <t>0,98; 11,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,47; 17,08</t>
+          <t>7,69; 16,91</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,39; 15,4</t>
+          <t>5,54; 15,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,1; 27,59</t>
+          <t>2,03; 26,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,99; 79,84</t>
+          <t>28,33; 77,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,18; 42,62</t>
+          <t>13,52; 43,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,68; 7,64</t>
+          <t>2,59; 7,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,36; 10,6</t>
+          <t>6,14; 10,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,27; 11,34</t>
+          <t>6,31; 11,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,44; 19,46</t>
+          <t>6,12; 18,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>26,94; 49,66</t>
+          <t>25,91; 49,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>17,74; 34,72</t>
+          <t>18,19; 34,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P34A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 6,06</t>
+          <t>-10,83; 6,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 16,97</t>
+          <t>1,16; 17,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 14,05</t>
+          <t>-1,05; 14,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,77; 19,61</t>
+          <t>-27,18; 22,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 60,19</t>
+          <t>2,01; 62,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 36,63</t>
+          <t>-1,92; 37,5</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,38; 16,71</t>
+          <t>4,04; 16,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,02; 19,55</t>
+          <t>7,87; 19,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 13,58</t>
+          <t>1,39; 13,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,57; 21,02</t>
+          <t>7,25; 20,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,9; 55,57</t>
+          <t>11,47; 55,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,83; 108,9</t>
+          <t>33,14; 103,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,67; 51,2</t>
+          <t>3,81; 50,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,32; 62,12</t>
+          <t>17,37; 59,21</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 7,09</t>
+          <t>-9,07; 6,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 6,88</t>
+          <t>-5,77; 6,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 12,15</t>
+          <t>-2,38; 12,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 10,25</t>
+          <t>-4,36; 9,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 18,22</t>
+          <t>-19,97; 16,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 43,18</t>
+          <t>-26,47; 43,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 42,59</t>
+          <t>-6,65; 43,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 31,4</t>
+          <t>-11,13; 29,45</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 10,16</t>
+          <t>-3,51; 11,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 13,23</t>
+          <t>3,4; 13,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,06; 20,34</t>
+          <t>6,65; 19,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 14,2</t>
+          <t>-2,82; 14,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 30,14</t>
+          <t>-8,45; 32,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,69; 56,31</t>
+          <t>11,91; 57,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>28,73; 111,19</t>
+          <t>26,27; 106,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 48,49</t>
+          <t>-7,65; 50,06</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,04; 27,79</t>
+          <t>7,72; 29,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 18,59</t>
+          <t>0,82; 18,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,45; 23,94</t>
+          <t>3,88; 22,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 8,41</t>
+          <t>-1,14; 8,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,63; 63,29</t>
+          <t>15,22; 66,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 77,02</t>
+          <t>2,9; 81,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,83; 79,84</t>
+          <t>10,57; 80,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 114,8</t>
+          <t>-10,11; 116,4</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 15,34</t>
+          <t>-1,24; 15,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 11,56</t>
+          <t>-1,55; 11,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 15,06</t>
+          <t>-0,76; 15,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 9,39</t>
+          <t>-5,55; 9,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 46,5</t>
+          <t>-3,04; 48,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 108,51</t>
+          <t>-11,15; 96,24</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 50,13</t>
+          <t>-2,1; 52,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 26,83</t>
+          <t>-12,36; 27,6</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 7,42</t>
+          <t>-3,93; 7,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,33; 9,49</t>
+          <t>0,42; 10,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,19; 12,26</t>
+          <t>1,34; 12,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,96; 14,07</t>
+          <t>-6,64; 14,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 18,0</t>
+          <t>-8,24; 17,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 50,68</t>
+          <t>1,21; 55,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,8; 33,52</t>
+          <t>3,1; 33,79</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-22,79; 52,77</t>
+          <t>-21,08; 53,41</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,98; 11,36</t>
+          <t>0,69; 11,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,69; 16,91</t>
+          <t>7,42; 16,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,54; 15,23</t>
+          <t>5,07; 15,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,55; 12,84</t>
+          <t>1,55; 12,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,03; 26,73</t>
+          <t>0,89; 25,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>28,33; 77,01</t>
+          <t>26,81; 74,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,52; 43,36</t>
+          <t>12,98; 42,71</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,97; 52,59</t>
+          <t>4,7; 51,54</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,59; 7,42</t>
+          <t>2,44; 7,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,14; 10,59</t>
+          <t>6,25; 10,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,31; 11,36</t>
+          <t>6,48; 11,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,16; 8,91</t>
+          <t>2,59; 9,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,12; 18,65</t>
+          <t>5,71; 18,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>25,91; 49,21</t>
+          <t>26,67; 49,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>18,19; 34,92</t>
+          <t>18,58; 34,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,03; 28,58</t>
+          <t>7,84; 31,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P34A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>18,93%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,81; 19,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 14,37</t>
+          <t>0,05; 16,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,66; 93,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 37,5</t>
+          <t>-0,11; 43,74</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,2</t>
+          <t>14,81</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,74%</t>
+          <t>39,04%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,25; 20,51</t>
+          <t>7,93; 21,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,37; 59,21</t>
+          <t>18,41; 62,65</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,43%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 9,54</t>
+          <t>-4,33; 9,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 29,45</t>
+          <t>-11,06; 30,16</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,32</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,2</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,75%</t>
+          <t>20,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>8,22%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 13,38</t>
+          <t>-1,39; 12,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 14,27</t>
+          <t>-13,86; 17,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,91; 57,07</t>
+          <t>-4,72; 51,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 50,06</t>
+          <t>-35,85; 53,11</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>38,97%</t>
+          <t>39,04%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 8,66</t>
+          <t>-1,04; 8,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,11; 116,4</t>
+          <t>-9,37; 113,55</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,02</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>4,88%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 9,79</t>
+          <t>-5,56; 9,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 27,6</t>
+          <t>-12,23; 27,36</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,67</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>9,76%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,64; 14,54</t>
+          <t>-13,2; 14,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-21,08; 53,41</t>
+          <t>-44,26; 54,15</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,55</t>
+          <t>12,72</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>55,31%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,55; 12,69</t>
+          <t>2,71; 25,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,7; 51,54</t>
+          <t>8,21; 232,34</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>22,88%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>2,59; 9,63</t>
+          <t>1,25; 13,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,84; 31,06</t>
+          <t>4,6; 55,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P34A_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P34A_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 6,79</t>
+          <t>-11,09; 5,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,81; 19,59</t>
+          <t>3,7; 18,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 17,44</t>
+          <t>1,31; 17,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,05; 16,36</t>
+          <t>-0,19; 16,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 22,06</t>
+          <t>-28,28; 17,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,66; 93,86</t>
+          <t>12,86; 91,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 62,32</t>
+          <t>3,35; 63,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 43,74</t>
+          <t>-0,37; 45,06</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,04; 16,51</t>
+          <t>4,27; 16,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,87; 19,15</t>
+          <t>7,86; 19,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,39; 13,48</t>
+          <t>1,97; 13,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,93; 21,27</t>
+          <t>7,61; 21,03</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,47; 55,65</t>
+          <t>11,63; 55,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,14; 103,72</t>
+          <t>30,45; 97,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,81; 50,89</t>
+          <t>6,51; 50,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,41; 62,65</t>
+          <t>18,19; 63,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 6,26</t>
+          <t>-9,35; 6,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 6,78</t>
+          <t>-5,56; 6,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 12,15</t>
+          <t>-2,22; 12,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 9,76</t>
+          <t>-4,05; 9,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 16,67</t>
+          <t>-20,37; 17,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,47; 43,42</t>
+          <t>-24,58; 43,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 43,75</t>
+          <t>-6,22; 42,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,06; 30,16</t>
+          <t>-9,95; 30,74</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 11,14</t>
+          <t>-3,78; 10,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 12,47</t>
+          <t>-1,31; 11,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,65; 19,57</t>
+          <t>6,95; 20,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,86; 17,16</t>
+          <t>-12,68; 16,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 32,08</t>
+          <t>-9,02; 30,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 51,72</t>
+          <t>-4,05; 49,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,27; 106,12</t>
+          <t>28,93; 109,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,85; 53,11</t>
+          <t>-33,06; 51,94</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,72; 29,29</t>
+          <t>7,72; 27,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 18,61</t>
+          <t>0,63; 19,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,88; 22,79</t>
+          <t>3,62; 22,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 8,49</t>
+          <t>-1,01; 8,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,22; 66,05</t>
+          <t>14,68; 63,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,9; 81,48</t>
+          <t>1,61; 83,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,57; 80,15</t>
+          <t>9,14; 72,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 113,55</t>
+          <t>-8,61; 120,5</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 15,74</t>
+          <t>-0,46; 15,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 11,01</t>
+          <t>-1,39; 11,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 15,59</t>
+          <t>-1,21; 15,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 9,84</t>
+          <t>-5,43; 9,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 48,48</t>
+          <t>-1,28; 46,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 96,24</t>
+          <t>-11,2; 94,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 52,01</t>
+          <t>-3,91; 51,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 27,36</t>
+          <t>-12,1; 25,97</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 7,14</t>
+          <t>-4,38; 7,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 10,05</t>
+          <t>0,42; 10,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 12,44</t>
+          <t>1,35; 12,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,2; 14,59</t>
+          <t>-15,24; 14,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 17,07</t>
+          <t>-9,08; 16,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,21; 55,36</t>
+          <t>1,32; 55,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,1; 33,79</t>
+          <t>3,18; 33,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-44,26; 54,15</t>
+          <t>-47,01; 54,16</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,69; 11,23</t>
+          <t>1,06; 11,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,42; 16,71</t>
+          <t>7,7; 16,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,07; 15,24</t>
+          <t>4,89; 15,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,71; 25,97</t>
+          <t>2,88; 25,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,89; 25,84</t>
+          <t>2,09; 26,56</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>26,81; 74,83</t>
+          <t>27,48; 75,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,98; 42,71</t>
+          <t>12,01; 42,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,21; 232,34</t>
+          <t>8,95; 236,73</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,44; 7,41</t>
+          <t>2,58; 7,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,25; 10,57</t>
+          <t>6,31; 10,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>6,48; 11,29</t>
+          <t>6,47; 11,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,25; 13,89</t>
+          <t>0,97; 14,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,71; 18,66</t>
+          <t>6,02; 18,72</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>26,67; 49,09</t>
+          <t>27,35; 49,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>18,58; 34,81</t>
+          <t>18,7; 34,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,6; 55,02</t>
+          <t>4,4; 54,42</t>
         </is>
       </c>
     </row>
